--- a/medicine/Handicap/The_Extraordinary_Film_Festival/The_Extraordinary_Film_Festival.xlsx
+++ b/medicine/Handicap/The_Extraordinary_Film_Festival/The_Extraordinary_Film_Festival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Extraordinary Film Festival est un festival de cinéma créé à Namur en 2011 par Luc Boland. Il a pour thème le handicap sous toutes ses formes et se déroule au Delta (ancienne Maison de la Culture) à Namur.
 Créé sous le nom « Extra &amp; Ordinary People », il a changé de nom en 2015 et est devenu The Extraordinary Film Festival (TEFF). Il a lieu tous les deux ans en novembre.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luc Boland, le créateur et le directeur artistique du festival, est le père d'un enfant porteur du syndrome de Morsier. En 2005, il réalise Lettre à Lou, un documentaire de 52 minutes (80 minutes dans sa version éditée en DVD) qui relate le quotidien de sa famille. Notamment diffusé sur France 5 et RTL TVI, le film bénéficie d'un certain succès, si bien que Boland reçoit 4 500 courriels de réaction. Il prend alors conscience du besoin largement ressenti de mettre en lumière des destins d'individus différents. Le projet du festival est né de ce constat[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luc Boland, le créateur et le directeur artistique du festival, est le père d'un enfant porteur du syndrome de Morsier. En 2005, il réalise Lettre à Lou, un documentaire de 52 minutes (80 minutes dans sa version éditée en DVD) qui relate le quotidien de sa famille. Notamment diffusé sur France 5 et RTL TVI, le film bénéficie d'un certain succès, si bien que Boland reçoit 4 500 courriels de réaction. Il prend alors conscience du besoin largement ressenti de mettre en lumière des destins d'individus différents. Le projet du festival est né de ce constat.
 </t>
         </is>
       </c>
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1re édition (2011)
-Prix CAP48 : Hasta la vista de Geoffrey Enthoven
+          <t>1re édition (2011)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix CAP48 : Hasta la vista de Geoffrey Enthoven
 Prix SACD-Scam : NoBody's Perfect de Niko von Glasow
 Grand Prix RTBF-EOP! : The cost of living de Lloyd Newson
 Prix court métrage RTBF : Luneville de Sébastien Petit
 Prix du public : Hasta la vista de Geoffrey Enthoven
-Prix du public court métrage : Mon petit frère de la lune de Frédéric Philibert
-2e édition (2013)
-Grand Prix RTBF long métrage : My way to Olympia de Niko von Glasow
+Prix du public court métrage : Mon petit frère de la lune de Frédéric Philibert</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2e édition (2013)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grand Prix RTBF long métrage : My way to Olympia de Niko von Glasow
 Grand Prix RTBF court métrage : The Interwiever de Geneviève Clay-Smith
 2ème prix RTBF : Dead Mugger de William Magger
 Prix CAP48 : My wonderful life as a vegetable de Lars Feldballe Petersen
@@ -562,9 +615,43 @@
 Prix du public long métrage : The scarlet road de Catherine Scott
 Prix du public court métrage : The Interwiever de Geneviève Clay-Smith
 Mention court métrage : Akvarium de Bård Røssevold
-Mention long métrage : The Punk Syndrome de Jukka Kärkkäinen et J-P Passi
-3e édition (2015)
-Grand Prix RTBF long métrage : Margarita with a Straw de Shonali Bose et Nilesh Maniyar
+Mention long métrage : The Punk Syndrome de Jukka Kärkkäinen et J-P Passi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3e édition (2015)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grand Prix RTBF long métrage : Margarita with a Straw de Shonali Bose et Nilesh Maniyar
 Grand Prix RTBF court métrage : Work Mate de Genevieve Clay-Smith
 Prix CAP48 du documentaire : Glance Up de Enric Ribes et Oriol Martinez
 Prix du Délégué général aux droits de l’enfant (DGDE) : Cuerdas de Pedro Solic Garcia
@@ -573,9 +660,43 @@
 Prix du public long métrage : Gabor de Sebastian Alfie
 Prix du public court métrage : A Cold Land de Shahriar Pourseyedian et Cuerdas de Pedro Solic Garcia
 Prix du public «Pub et Com» : Een Lift Geeft Je Vleugels ! de Roel Goyens
-Prix du Jeune public du Club Richelieu Europe de Namur : Cuerdas de Pedro Solic Garcia
-4e édition (2017)
-Grand Prix du jury - long métrage : Yes, we fuck ! de Raul De La Morena et Antonio Centeno
+Prix du Jeune public du Club Richelieu Europe de Namur : Cuerdas de Pedro Solic Garcia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4e édition (2017)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grand Prix du jury - long métrage : Yes, we fuck ! de Raul De La Morena et Antonio Centeno
 Mention spéciale du Jury :  Gildas a quelque chose à nous dire de Just et Tristan Philippot
 Grand Prix du Jury - meilleur court métrage, tous genres confondus : Downside up de Peter Ghesquière
 Grand Prix CAP48 - documentaire : Leo &amp; Carol de Alvaro Campos et Dafne Capella
@@ -586,9 +707,43 @@
 Prix du public long métrage : Une vie normale de Edouard Cuel et Gaël Breton
 Prix du public court métrage : Kill Off de Geneviève Clay-Smith
 Prix du Public communication : Inversion de Stéphane Rivière et Adda Abdelli
-Prix Richelieu Jeune public : The Present de Jacob Frey
-5e édition (2019)
-Grand Prix du Jury long métrage : D’égal à égal de Evi Goldbrunner et Joachim Dollhopf
+Prix Richelieu Jeune public : The Present de Jacob Frey</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Extraordinary_Film_Festival</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5e édition (2019)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Grand Prix du Jury long métrage : D’égal à égal de Evi Goldbrunner et Joachim Dollhopf
 Grand Prix du Jury court métrage, tous genres confondus : Duke de Thiago Dadalt
 Prix Ils ont la parole : Le petit monde d'Émilie de Mehdi Noblesse
 Prix CAP48 documentaire : Just, go ! de Pavel Gumennikov
